--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="1121">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -554,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t>External ids for this request</t>
+    <t>Unique identifier of the prescription item by the prescriber</t>
   </si>
   <si>
     <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
@@ -710,7 +710,7 @@
 </t>
   </si>
   <si>
-    <t>Unique identifier of the prescription item by the prescriber</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -1047,9 +1047,6 @@
   </si>
   <si>
     <t>MedicationRequest.groupIdentifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
   </si>
   <si>
     <t>MedicationRequest.groupIdentifier.period</t>
@@ -9062,7 +9059,7 @@
         <v>220</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>222</v>
@@ -9153,10 +9150,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -9271,10 +9268,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -9391,10 +9388,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -9420,13 +9417,13 @@
         <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -9455,11 +9452,11 @@
         <v>115</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
       </c>
@@ -9476,7 +9473,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>91</v>
@@ -9491,19 +9488,19 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -9511,10 +9508,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -9540,13 +9537,13 @@
         <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -9572,14 +9569,14 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
       </c>
@@ -9596,7 +9593,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -9614,16 +9611,16 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -9631,10 +9628,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -9657,13 +9654,13 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -9714,7 +9711,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -9741,7 +9738,7 @@
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -9749,10 +9746,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9778,13 +9775,13 @@
         <v>111</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -9813,11 +9810,11 @@
         <v>115</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
       </c>
@@ -9834,7 +9831,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>91</v>
@@ -9852,16 +9849,16 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -9869,10 +9866,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9898,13 +9895,13 @@
         <v>200</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -9930,14 +9927,14 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
       </c>
@@ -9954,7 +9951,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -9975,13 +9972,13 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -9989,10 +9986,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -10018,10 +10015,10 @@
         <v>111</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -10051,11 +10048,11 @@
         <v>115</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
       </c>
@@ -10072,7 +10069,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -10087,19 +10084,19 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -10107,10 +10104,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -10133,16 +10130,16 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -10192,7 +10189,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -10219,7 +10216,7 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -10227,10 +10224,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -10253,16 +10250,16 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -10288,14 +10285,14 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
       </c>
@@ -10312,7 +10309,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>91</v>
@@ -10330,27 +10327,27 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AO54" t="s" s="2">
+      <c r="AP54" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>399</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -10465,10 +10462,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -10585,10 +10582,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -10614,10 +10611,10 @@
         <v>200</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -10668,7 +10665,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -10703,10 +10700,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10821,10 +10818,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10941,10 +10938,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10967,19 +10964,19 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -11028,7 +11025,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -11055,18 +11052,18 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -11181,10 +11178,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -11301,10 +11298,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -11330,16 +11327,16 @@
         <v>105</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -11388,7 +11385,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -11415,18 +11412,18 @@
         <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -11452,13 +11449,13 @@
         <v>220</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -11508,7 +11505,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -11535,18 +11532,18 @@
         <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -11572,14 +11569,14 @@
         <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -11628,16 +11625,16 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -11655,18 +11652,18 @@
         <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AP65" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>441</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -11692,14 +11689,14 @@
         <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -11748,7 +11745,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -11757,7 +11754,7 @@
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -11775,18 +11772,18 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AP66" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11809,19 +11806,19 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -11870,7 +11867,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -11897,18 +11894,18 @@
         <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AP67" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11934,16 +11931,16 @@
         <v>220</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -11992,7 +11989,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -12019,18 +12016,18 @@
         <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -12053,13 +12050,13 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -12110,7 +12107,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -12145,10 +12142,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -12171,16 +12168,16 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -12230,7 +12227,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>91</v>
@@ -12248,27 +12245,27 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AO70" t="s" s="2">
+      <c r="AP70" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -12291,13 +12288,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -12348,7 +12345,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -12375,7 +12372,7 @@
         <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>80</v>
@@ -12383,10 +12380,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -12409,16 +12406,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -12468,7 +12465,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -12486,27 +12483,27 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AM72" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AO72" t="s" s="2">
+      <c r="AP72" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>493</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -12529,16 +12526,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -12588,7 +12585,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -12606,16 +12603,16 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>80</v>
@@ -12623,10 +12620,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -12649,13 +12646,13 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -12706,7 +12703,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -12724,27 +12721,27 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AO74" t="s" s="2">
+      <c r="AP74" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12767,13 +12764,13 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -12824,7 +12821,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -12839,19 +12836,19 @@
         <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="AO75" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>80</v>
@@ -12859,10 +12856,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12885,16 +12882,16 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -12944,7 +12941,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -12971,7 +12968,7 @@
         <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>80</v>
@@ -12979,10 +12976,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -13008,13 +13005,13 @@
         <v>200</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -13043,11 +13040,11 @@
         <v>205</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>526</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
       </c>
@@ -13064,7 +13061,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -13082,16 +13079,16 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>80</v>
@@ -13099,10 +13096,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -13125,13 +13122,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -13182,7 +13179,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -13200,16 +13197,16 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>80</v>
@@ -13217,10 +13214,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -13243,13 +13240,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -13300,7 +13297,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -13315,7 +13312,7 @@
         <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -13327,7 +13324,7 @@
         <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>80</v>
@@ -13335,10 +13332,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -13361,13 +13358,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -13418,7 +13415,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -13442,10 +13439,10 @@
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>80</v>
@@ -13453,10 +13450,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -13479,16 +13476,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -13514,14 +13511,14 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
@@ -13538,7 +13535,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -13556,27 +13553,27 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AO81" t="s" s="2">
+      <c r="AP81" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13602,13 +13599,13 @@
         <v>200</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -13637,11 +13634,11 @@
         <v>205</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Z82" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
       </c>
@@ -13658,7 +13655,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -13685,7 +13682,7 @@
         <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>80</v>
@@ -13693,10 +13690,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13719,13 +13716,13 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -13776,7 +13773,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -13794,16 +13791,16 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -13811,10 +13808,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13837,13 +13834,13 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -13882,7 +13879,7 @@
         <v>80</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
@@ -13892,7 +13889,7 @@
         <v>142</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -13910,16 +13907,16 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>80</v>
@@ -13927,13 +13924,13 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C85" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>80</v>
@@ -13955,13 +13952,13 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -14012,7 +14009,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -14027,19 +14024,19 @@
         <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>80</v>
@@ -14047,10 +14044,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B86" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -14091,7 +14088,7 @@
         <v>80</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>80</v>
@@ -14165,10 +14162,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -14285,10 +14282,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -14311,16 +14308,16 @@
         <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -14370,7 +14367,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -14397,7 +14394,7 @@
         <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>136</v>
@@ -14405,10 +14402,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -14431,13 +14428,13 @@
         <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -14488,7 +14485,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -14515,7 +14512,7 @@
         <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>136</v>
@@ -14523,10 +14520,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -14549,13 +14546,13 @@
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -14606,7 +14603,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>91</v>
@@ -14633,7 +14630,7 @@
         <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>136</v>
@@ -14641,13 +14638,13 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>80</v>
@@ -14669,13 +14666,13 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -14726,7 +14723,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -14741,19 +14738,19 @@
         <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>80</v>
@@ -14761,10 +14758,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14805,7 +14802,7 @@
         <v>80</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>80</v>
@@ -14879,10 +14876,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14999,10 +14996,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -15025,16 +15022,16 @@
         <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -15084,7 +15081,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -15111,7 +15108,7 @@
         <v>80</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>136</v>
@@ -15119,10 +15116,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -15145,13 +15142,13 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -15202,7 +15199,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -15229,7 +15226,7 @@
         <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>136</v>
@@ -15237,10 +15234,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -15263,13 +15260,13 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -15320,7 +15317,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>91</v>
@@ -15347,7 +15344,7 @@
         <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>136</v>
@@ -15355,13 +15352,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>80</v>
@@ -15383,13 +15380,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -15440,7 +15437,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -15455,19 +15452,19 @@
         <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO97" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>80</v>
@@ -15475,10 +15472,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -15519,7 +15516,7 @@
         <v>80</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>80</v>
@@ -15593,10 +15590,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -15713,10 +15710,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15739,16 +15736,16 @@
         <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -15798,7 +15795,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -15825,7 +15822,7 @@
         <v>80</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>136</v>
@@ -15833,10 +15830,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15859,13 +15856,13 @@
         <v>92</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -15916,7 +15913,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -15943,7 +15940,7 @@
         <v>80</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>136</v>
@@ -15951,10 +15948,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15977,13 +15974,13 @@
         <v>92</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -16034,7 +16031,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>91</v>
@@ -16061,7 +16058,7 @@
         <v>80</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>136</v>
@@ -16069,10 +16066,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -16095,17 +16092,17 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -16154,7 +16151,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -16181,7 +16178,7 @@
         <v>80</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>80</v>
@@ -16189,10 +16186,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -16218,10 +16215,10 @@
         <v>230</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -16272,7 +16269,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -16299,7 +16296,7 @@
         <v>80</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>80</v>
@@ -16307,10 +16304,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -16425,10 +16422,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -16545,10 +16542,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -16571,16 +16568,16 @@
         <v>92</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -16630,45 +16627,45 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI107" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="AL107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO107" t="s" s="2">
+      <c r="AP107" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>645</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16691,69 +16688,69 @@
         <v>92</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q108" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="R108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
       </c>
@@ -16761,36 +16758,36 @@
         <v>91</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO108" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="AL108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO108" t="s" s="2">
+      <c r="AP108" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>654</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16813,16 +16810,16 @@
         <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -16860,7 +16857,7 @@
         <v>80</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AC109" s="2"/>
       <c r="AD109" t="s" s="2">
@@ -16870,7 +16867,7 @@
         <v>142</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -16897,7 +16894,7 @@
         <v>80</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>80</v>
@@ -16905,10 +16902,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>257</v>
@@ -16933,16 +16930,16 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -16992,7 +16989,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -17019,7 +17016,7 @@
         <v>80</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>80</v>
@@ -17027,10 +17024,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B111" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -17145,10 +17142,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -17265,14 +17262,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -17294,10 +17291,10 @@
         <v>138</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>165</v>
@@ -17352,7 +17349,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -17387,10 +17384,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -17413,17 +17410,17 @@
         <v>92</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>80</v>
@@ -17472,7 +17469,7 @@
         <v>80</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -17499,18 +17496,18 @@
         <v>80</v>
       </c>
       <c r="AO114" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AP114" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>680</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -17536,14 +17533,14 @@
         <v>220</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>80</v>
@@ -17592,7 +17589,7 @@
         <v>80</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -17607,30 +17604,30 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AP115" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>688</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B116" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17656,16 +17653,16 @@
         <v>200</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>80</v>
@@ -17690,31 +17687,31 @@
         <v>80</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="Z116" t="s" s="2">
+      <c r="AA116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF116" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -17729,30 +17726,30 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AP116" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>699</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="B117" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17778,10 +17775,10 @@
         <v>220</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -17832,7 +17829,7 @@
         <v>80</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -17859,18 +17856,18 @@
         <v>80</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17893,19 +17890,19 @@
         <v>92</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="N118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>80</v>
@@ -17954,7 +17951,7 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -17981,7 +17978,7 @@
         <v>80</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>80</v>
@@ -17989,10 +17986,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B119" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -18107,10 +18104,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B120" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -18227,14 +18224,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="B121" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -18256,10 +18253,10 @@
         <v>138</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>165</v>
@@ -18314,7 +18311,7 @@
         <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -18349,10 +18346,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="B122" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -18375,17 +18372,17 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>80</v>
@@ -18434,7 +18431,7 @@
         <v>80</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -18461,7 +18458,7 @@
         <v>80</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>80</v>
@@ -18469,10 +18466,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B123" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18495,17 +18492,17 @@
         <v>92</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>80</v>
@@ -18554,34 +18551,34 @@
         <v>80</v>
       </c>
       <c r="AF123" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="AG123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
+      <c r="AK123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO123" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>80</v>
@@ -18589,10 +18586,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B124" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18707,10 +18704,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="B125" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18827,10 +18824,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="B126" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18853,13 +18850,13 @@
         <v>92</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18898,7 +18895,7 @@
         <v>80</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AC126" s="2"/>
       <c r="AD126" t="s" s="2">
@@ -18908,7 +18905,7 @@
         <v>142</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -18935,7 +18932,7 @@
         <v>80</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>80</v>
@@ -18943,13 +18940,13 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="C127" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="D127" t="s" s="2">
         <v>80</v>
@@ -18974,10 +18971,10 @@
         <v>230</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -19028,7 +19025,7 @@
         <v>80</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -19055,7 +19052,7 @@
         <v>80</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>80</v>
@@ -19063,10 +19060,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="B128" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -19181,10 +19178,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="B129" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -19301,10 +19298,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="B130" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -19327,16 +19324,16 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M130" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N130" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -19386,22 +19383,22 @@
         <v>80</v>
       </c>
       <c r="AF130" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI130" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>80</v>
@@ -19413,18 +19410,18 @@
         <v>80</v>
       </c>
       <c r="AO130" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AP130" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AP130" t="s" s="2">
-        <v>645</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="B131" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -19447,69 +19444,69 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M131" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N131" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q131" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF131" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="R131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
       </c>
@@ -19517,13 +19514,13 @@
         <v>91</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>80</v>
@@ -19535,18 +19532,18 @@
         <v>80</v>
       </c>
       <c r="AO131" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AP131" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="AP131" t="s" s="2">
-        <v>654</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B132" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19569,19 +19566,19 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="N132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>767</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>80</v>
@@ -19630,16 +19627,16 @@
         <v>80</v>
       </c>
       <c r="AF132" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI132" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>103</v>
@@ -19657,7 +19654,7 @@
         <v>80</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AP132" t="s" s="2">
         <v>80</v>
@@ -19665,10 +19662,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B133" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19691,13 +19688,13 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>774</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>775</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -19748,7 +19745,7 @@
         <v>80</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -19757,7 +19754,7 @@
         <v>91</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>103</v>
@@ -19775,7 +19772,7 @@
         <v>80</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AP133" t="s" s="2">
         <v>80</v>
@@ -19783,10 +19780,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="B134" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19809,19 +19806,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>80</v>
@@ -19870,16 +19867,16 @@
         <v>80</v>
       </c>
       <c r="AF134" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI134" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>103</v>
@@ -19897,7 +19894,7 @@
         <v>80</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>80</v>
@@ -19905,10 +19902,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19931,19 +19928,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="M135" t="s" s="2">
-        <v>790</v>
-      </c>
       <c r="N135" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="O135" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>80</v>
@@ -19992,16 +19989,16 @@
         <v>80</v>
       </c>
       <c r="AF135" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI135" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>103</v>
@@ -20019,7 +20016,7 @@
         <v>80</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>80</v>
@@ -20027,10 +20024,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="B136" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>794</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -20056,10 +20053,10 @@
         <v>111</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -20089,37 +20086,37 @@
         <v>115</v>
       </c>
       <c r="Y136" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="Z136" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="Z136" t="s" s="2">
+      <c r="AA136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF136" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="AA136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF136" t="s" s="2">
+      <c r="AG136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI136" t="s" s="2">
         <v>799</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>103</v>
@@ -20137,7 +20134,7 @@
         <v>80</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AP136" t="s" s="2">
         <v>80</v>
@@ -20145,10 +20142,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="B137" t="s" s="2">
         <v>802</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -20171,13 +20168,13 @@
         <v>92</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -20185,52 +20182,52 @@
         <v>80</v>
       </c>
       <c r="Q137" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF137" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="R137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -20257,7 +20254,7 @@
         <v>80</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>80</v>
@@ -20265,10 +20262,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>808</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>809</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -20291,13 +20288,13 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>811</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -20348,7 +20345,7 @@
         <v>80</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>78</v>
@@ -20375,7 +20372,7 @@
         <v>80</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>80</v>
@@ -20383,10 +20380,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="B139" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -20409,13 +20406,13 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -20466,16 +20463,16 @@
         <v>80</v>
       </c>
       <c r="AF139" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI139" t="s" s="2">
         <v>817</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>103</v>
@@ -20493,7 +20490,7 @@
         <v>80</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>80</v>
@@ -20501,10 +20498,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>820</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20527,13 +20524,13 @@
         <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>821</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>822</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -20584,16 +20581,16 @@
         <v>80</v>
       </c>
       <c r="AF140" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI140" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>103</v>
@@ -20611,7 +20608,7 @@
         <v>80</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>80</v>
@@ -20619,10 +20616,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -20648,10 +20645,10 @@
         <v>111</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -20681,11 +20678,11 @@
         <v>115</v>
       </c>
       <c r="Y141" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="Z141" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="Z141" t="s" s="2">
-        <v>798</v>
-      </c>
       <c r="AA141" t="s" s="2">
         <v>80</v>
       </c>
@@ -20702,16 +20699,16 @@
         <v>80</v>
       </c>
       <c r="AF141" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI141" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>103</v>
@@ -20729,7 +20726,7 @@
         <v>80</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>80</v>
@@ -20737,10 +20734,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20766,13 +20763,13 @@
         <v>111</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>832</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -20802,25 +20799,25 @@
       </c>
       <c r="Y142" s="2"/>
       <c r="Z142" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF142" t="s" s="2">
         <v>835</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>836</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -20855,10 +20852,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>837</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20881,16 +20878,16 @@
         <v>92</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>839</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="M143" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>842</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -20940,7 +20937,7 @@
         <v>80</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>78</v>
@@ -20949,7 +20946,7 @@
         <v>79</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>103</v>
@@ -20975,10 +20972,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -21004,16 +21001,16 @@
         <v>111</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>80</v>
@@ -21041,28 +21038,28 @@
         <v>115</v>
       </c>
       <c r="Y144" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="Z144" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="Z144" t="s" s="2">
+      <c r="AA144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF144" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>853</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -21071,7 +21068,7 @@
         <v>79</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>103</v>
@@ -21089,7 +21086,7 @@
         <v>80</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>80</v>
@@ -21097,10 +21094,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>856</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>857</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -21123,13 +21120,13 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>858</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>859</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -21180,34 +21177,34 @@
         <v>80</v>
       </c>
       <c r="AF145" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI145" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>862</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK145" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO145" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>80</v>
@@ -21215,10 +21212,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>865</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>866</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -21244,13 +21241,13 @@
         <v>200</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>867</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -21276,31 +21273,31 @@
         <v>80</v>
       </c>
       <c r="X146" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="Y146" t="s" s="2">
         <v>870</v>
       </c>
-      <c r="Y146" t="s" s="2">
+      <c r="Z146" t="s" s="2">
         <v>871</v>
       </c>
-      <c r="Z146" t="s" s="2">
+      <c r="AA146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF146" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>873</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>78</v>
@@ -21327,7 +21324,7 @@
         <v>80</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>80</v>
@@ -21335,10 +21332,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="B147" t="s" s="2">
         <v>875</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -21361,16 +21358,16 @@
         <v>92</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -21420,16 +21417,16 @@
         <v>80</v>
       </c>
       <c r="AF147" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI147" t="s" s="2">
         <v>880</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>103</v>
@@ -21447,18 +21444,18 @@
         <v>80</v>
       </c>
       <c r="AO147" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="AP147" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="AP147" t="s" s="2">
-        <v>883</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="B148" t="s" s="2">
         <v>884</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>885</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -21484,13 +21481,13 @@
         <v>200</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -21516,31 +21513,31 @@
         <v>80</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y148" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="Z148" t="s" s="2">
         <v>889</v>
       </c>
-      <c r="Z148" t="s" s="2">
+      <c r="AA148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF148" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>78</v>
@@ -21549,7 +21546,7 @@
         <v>79</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>103</v>
@@ -21567,18 +21564,18 @@
         <v>80</v>
       </c>
       <c r="AO148" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="AP148" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="AP148" t="s" s="2">
-        <v>883</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="B149" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>893</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21604,16 +21601,16 @@
         <v>200</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>894</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>895</v>
       </c>
-      <c r="N149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>80</v>
@@ -21638,31 +21635,31 @@
         <v>80</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y149" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="Z149" t="s" s="2">
         <v>898</v>
       </c>
-      <c r="Z149" t="s" s="2">
+      <c r="AA149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF149" t="s" s="2">
         <v>899</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -21677,30 +21674,30 @@
         <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO149" t="s" s="2">
         <v>901</v>
       </c>
-      <c r="AL149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO149" t="s" s="2">
+      <c r="AP149" t="s" s="2">
         <v>902</v>
-      </c>
-      <c r="AP149" t="s" s="2">
-        <v>903</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="B150" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>905</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21726,14 +21723,14 @@
         <v>200</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>906</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>907</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>80</v>
@@ -21758,31 +21755,31 @@
         <v>80</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y150" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="Z150" t="s" s="2">
         <v>909</v>
       </c>
-      <c r="Z150" t="s" s="2">
+      <c r="AA150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF150" t="s" s="2">
         <v>910</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>911</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -21797,30 +21794,30 @@
         <v>103</v>
       </c>
       <c r="AK150" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO150" t="s" s="2">
         <v>912</v>
       </c>
-      <c r="AL150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO150" t="s" s="2">
+      <c r="AP150" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="AP150" t="s" s="2">
-        <v>914</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="B151" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>916</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21846,16 +21843,16 @@
         <v>200</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>917</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>918</v>
       </c>
-      <c r="N151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>919</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>920</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>80</v>
@@ -21880,31 +21877,31 @@
         <v>80</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y151" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="Z151" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="Z151" t="s" s="2">
+      <c r="AA151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF151" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>78</v>
@@ -21919,30 +21916,30 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO151" t="s" s="2">
         <v>924</v>
       </c>
-      <c r="AL151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO151" t="s" s="2">
+      <c r="AP151" t="s" s="2">
         <v>925</v>
-      </c>
-      <c r="AP151" t="s" s="2">
-        <v>926</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>927</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>928</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21965,13 +21962,13 @@
         <v>92</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -22022,7 +22019,7 @@
         <v>80</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -22049,18 +22046,18 @@
         <v>80</v>
       </c>
       <c r="AO152" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="AP152" t="s" s="2">
         <v>932</v>
-      </c>
-      <c r="AP152" t="s" s="2">
-        <v>933</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="B153" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>935</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -22175,10 +22172,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="B154" t="s" s="2">
         <v>936</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -22295,10 +22292,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="B155" t="s" s="2">
         <v>938</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>939</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -22324,14 +22321,14 @@
         <v>200</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>941</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>80</v>
@@ -22356,31 +22353,31 @@
         <v>80</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y155" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="Z155" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="Z155" t="s" s="2">
+      <c r="AA155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF155" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -22410,15 +22407,15 @@
         <v>80</v>
       </c>
       <c r="AP155" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="B156" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -22441,19 +22438,19 @@
         <v>92</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>949</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="M156" t="s" s="2">
         <v>950</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="N156" t="s" s="2">
+      <c r="O156" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>80</v>
@@ -22502,7 +22499,7 @@
         <v>80</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -22529,18 +22526,18 @@
         <v>80</v>
       </c>
       <c r="AO156" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="AP156" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="AP156" t="s" s="2">
-        <v>956</v>
       </c>
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="B157" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -22563,19 +22560,19 @@
         <v>92</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>960</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>80</v>
@@ -22624,7 +22621,7 @@
         <v>80</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>78</v>
@@ -22651,18 +22648,18 @@
         <v>80</v>
       </c>
       <c r="AO157" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="AP157" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="AP157" t="s" s="2">
-        <v>966</v>
       </c>
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="B158" t="s" s="2">
         <v>967</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22685,19 +22682,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>969</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="N158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>80</v>
@@ -22746,7 +22743,7 @@
         <v>80</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>78</v>
@@ -22773,18 +22770,18 @@
         <v>80</v>
       </c>
       <c r="AO158" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="AP158" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="AP158" t="s" s="2">
-        <v>976</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="B159" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22807,19 +22804,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>979</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" t="s" s="2">
         <v>980</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="N159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>982</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>80</v>
@@ -22868,7 +22865,7 @@
         <v>80</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>78</v>
@@ -22895,7 +22892,7 @@
         <v>80</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>80</v>
@@ -22903,10 +22900,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="B160" t="s" s="2">
         <v>986</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>987</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22929,17 +22926,17 @@
         <v>92</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>80</v>
@@ -22988,7 +22985,7 @@
         <v>80</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>78</v>
@@ -23015,7 +23012,7 @@
         <v>80</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>80</v>
@@ -23023,13 +23020,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C161" t="s" s="2">
         <v>992</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="C161" t="s" s="2">
-        <v>993</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>80</v>
@@ -23051,16 +23048,16 @@
         <v>80</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -23110,7 +23107,7 @@
         <v>80</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>78</v>
@@ -23137,7 +23134,7 @@
         <v>80</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>80</v>
@@ -23145,10 +23142,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -23189,7 +23186,7 @@
         <v>80</v>
       </c>
       <c r="S162" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>80</v>
@@ -23263,10 +23260,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -23383,14 +23380,14 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
@@ -23412,10 +23409,10 @@
         <v>138</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N164" t="s" s="2">
         <v>165</v>
@@ -23470,7 +23467,7 @@
         <v>80</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -23505,10 +23502,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23531,17 +23528,17 @@
         <v>92</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="L165" t="s" s="2">
+      <c r="M165" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>80</v>
@@ -23590,7 +23587,7 @@
         <v>80</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>78</v>
@@ -23617,18 +23614,18 @@
         <v>80</v>
       </c>
       <c r="AO165" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AP165" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="AP165" t="s" s="2">
-        <v>680</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23654,14 +23651,14 @@
         <v>220</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>80</v>
@@ -23710,7 +23707,7 @@
         <v>80</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>78</v>
@@ -23737,18 +23734,18 @@
         <v>80</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP166" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23774,16 +23771,16 @@
         <v>200</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="M167" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="N167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>80</v>
@@ -23808,31 +23805,31 @@
         <v>80</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y167" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="Z167" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="Z167" t="s" s="2">
+      <c r="AA167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF167" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>78</v>
@@ -23859,18 +23856,18 @@
         <v>80</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP167" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23896,10 +23893,10 @@
         <v>220</v>
       </c>
       <c r="L168" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23950,7 +23947,7 @@
         <v>80</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>78</v>
@@ -23977,18 +23974,18 @@
         <v>80</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP168" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -24011,19 +24008,19 @@
         <v>92</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="M169" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="N169" t="s" s="2">
+      <c r="O169" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>80</v>
@@ -24072,7 +24069,7 @@
         <v>80</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>78</v>
@@ -24099,7 +24096,7 @@
         <v>80</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AP169" t="s" s="2">
         <v>80</v>
@@ -24107,10 +24104,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -24133,16 +24130,16 @@
         <v>92</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="M170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
@@ -24192,16 +24189,16 @@
         <v>80</v>
       </c>
       <c r="AF170" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI170" t="s" s="2">
         <v>880</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>103</v>
@@ -24219,18 +24216,18 @@
         <v>80</v>
       </c>
       <c r="AO170" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="AP170" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="AP170" t="s" s="2">
-        <v>883</v>
       </c>
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -24256,13 +24253,13 @@
         <v>200</v>
       </c>
       <c r="L171" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
@@ -24288,31 +24285,31 @@
         <v>80</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y171" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="Z171" t="s" s="2">
         <v>889</v>
       </c>
-      <c r="Z171" t="s" s="2">
+      <c r="AA171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF171" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>78</v>
@@ -24321,7 +24318,7 @@
         <v>79</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>103</v>
@@ -24339,18 +24336,18 @@
         <v>80</v>
       </c>
       <c r="AO171" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="AP171" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="AP171" t="s" s="2">
-        <v>883</v>
       </c>
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -24376,16 +24373,16 @@
         <v>200</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M172" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>895</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>80</v>
@@ -24410,31 +24407,31 @@
         <v>80</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y172" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="Z172" t="s" s="2">
         <v>898</v>
       </c>
-      <c r="Z172" t="s" s="2">
+      <c r="AA172" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF172" t="s" s="2">
         <v>899</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>78</v>
@@ -24461,18 +24458,18 @@
         <v>80</v>
       </c>
       <c r="AO172" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="AP172" t="s" s="2">
         <v>902</v>
-      </c>
-      <c r="AP172" t="s" s="2">
-        <v>903</v>
       </c>
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24498,14 +24495,14 @@
         <v>200</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>80</v>
@@ -24530,31 +24527,31 @@
         <v>80</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y173" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="Z173" t="s" s="2">
         <v>909</v>
       </c>
-      <c r="Z173" t="s" s="2">
+      <c r="AA173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF173" t="s" s="2">
         <v>910</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>911</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>78</v>
@@ -24581,18 +24578,18 @@
         <v>80</v>
       </c>
       <c r="AO173" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="AP173" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="AP173" t="s" s="2">
-        <v>914</v>
       </c>
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24618,16 +24615,16 @@
         <v>200</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M174" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="N174" t="s" s="2">
         <v>918</v>
       </c>
-      <c r="N174" t="s" s="2">
+      <c r="O174" t="s" s="2">
         <v>919</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>920</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>80</v>
@@ -24652,31 +24649,31 @@
         <v>80</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y174" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="Z174" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="Z174" t="s" s="2">
+      <c r="AA174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF174" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>78</v>
@@ -24703,18 +24700,18 @@
         <v>80</v>
       </c>
       <c r="AO174" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="AP174" t="s" s="2">
         <v>925</v>
-      </c>
-      <c r="AP174" t="s" s="2">
-        <v>926</v>
       </c>
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24737,13 +24734,13 @@
         <v>92</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -24794,7 +24791,7 @@
         <v>80</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>78</v>
@@ -24821,18 +24818,18 @@
         <v>80</v>
       </c>
       <c r="AO175" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="AP175" t="s" s="2">
         <v>932</v>
-      </c>
-      <c r="AP175" t="s" s="2">
-        <v>933</v>
       </c>
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24947,10 +24944,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -25067,10 +25064,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -25096,14 +25093,14 @@
         <v>200</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>941</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>80</v>
@@ -25128,31 +25125,31 @@
         <v>80</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y178" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="Z178" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="Z178" t="s" s="2">
+      <c r="AA178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF178" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>78</v>
@@ -25182,15 +25179,15 @@
         <v>80</v>
       </c>
       <c r="AP178" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -25213,19 +25210,19 @@
         <v>92</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>949</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="M179" t="s" s="2">
         <v>950</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="N179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>80</v>
@@ -25274,7 +25271,7 @@
         <v>80</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>78</v>
@@ -25301,18 +25298,18 @@
         <v>80</v>
       </c>
       <c r="AO179" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="AP179" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="AP179" t="s" s="2">
-        <v>956</v>
       </c>
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -25335,19 +25332,19 @@
         <v>92</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>960</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="N180" t="s" s="2">
+      <c r="O180" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>80</v>
@@ -25396,7 +25393,7 @@
         <v>80</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>78</v>
@@ -25423,18 +25420,18 @@
         <v>80</v>
       </c>
       <c r="AO180" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="AP180" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="AP180" t="s" s="2">
-        <v>966</v>
       </c>
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25457,19 +25454,19 @@
         <v>92</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="L181" t="s" s="2">
         <v>969</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="M181" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="N181" t="s" s="2">
+      <c r="O181" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>80</v>
@@ -25518,7 +25515,7 @@
         <v>80</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>78</v>
@@ -25545,18 +25542,18 @@
         <v>80</v>
       </c>
       <c r="AO181" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="AP181" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="AP181" t="s" s="2">
-        <v>976</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -25579,19 +25576,19 @@
         <v>92</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L182" t="s" s="2">
         <v>979</v>
       </c>
-      <c r="L182" t="s" s="2">
+      <c r="M182" t="s" s="2">
         <v>980</v>
       </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="N182" t="s" s="2">
+      <c r="O182" t="s" s="2">
         <v>982</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>80</v>
@@ -25640,7 +25637,7 @@
         <v>80</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>78</v>
@@ -25667,7 +25664,7 @@
         <v>80</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AP182" t="s" s="2">
         <v>80</v>
@@ -25675,10 +25672,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25701,17 +25698,17 @@
         <v>92</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L183" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>80</v>
@@ -25760,7 +25757,7 @@
         <v>80</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>78</v>
@@ -25787,7 +25784,7 @@
         <v>80</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>80</v>
@@ -25795,10 +25792,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25821,13 +25818,13 @@
         <v>80</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>1022</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>1023</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>1024</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -25878,7 +25875,7 @@
         <v>80</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>78</v>
@@ -25899,13 +25896,13 @@
         <v>80</v>
       </c>
       <c r="AM184" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO184" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="AN184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO184" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>80</v>
@@ -25913,10 +25910,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -26031,10 +26028,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -26151,14 +26148,14 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
@@ -26180,10 +26177,10 @@
         <v>138</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N187" t="s" s="2">
         <v>165</v>
@@ -26238,7 +26235,7 @@
         <v>80</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>78</v>
@@ -26273,10 +26270,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -26299,16 +26296,16 @@
         <v>80</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>1032</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -26358,7 +26355,7 @@
         <v>80</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>78</v>
@@ -26385,7 +26382,7 @@
         <v>80</v>
       </c>
       <c r="AO188" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AP188" t="s" s="2">
         <v>80</v>
@@ -26393,10 +26390,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -26511,10 +26508,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26631,14 +26628,14 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
@@ -26660,10 +26657,10 @@
         <v>138</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N191" t="s" s="2">
         <v>165</v>
@@ -26718,7 +26715,7 @@
         <v>80</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>78</v>
@@ -26753,10 +26750,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26779,13 +26776,13 @@
         <v>80</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>1040</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>1041</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26836,7 +26833,7 @@
         <v>80</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>78</v>
@@ -26863,7 +26860,7 @@
         <v>80</v>
       </c>
       <c r="AO192" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>80</v>
@@ -26871,10 +26868,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26897,13 +26894,13 @@
         <v>80</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>1044</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="M193" t="s" s="2">
         <v>1045</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -26954,7 +26951,7 @@
         <v>80</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>78</v>
@@ -26981,7 +26978,7 @@
         <v>80</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AP193" t="s" s="2">
         <v>80</v>
@@ -26989,10 +26986,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -27015,13 +27012,13 @@
         <v>80</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>1049</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>1050</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -27072,7 +27069,7 @@
         <v>80</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>78</v>
@@ -27099,7 +27096,7 @@
         <v>80</v>
       </c>
       <c r="AO194" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AP194" t="s" s="2">
         <v>80</v>
@@ -27107,10 +27104,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -27136,16 +27133,16 @@
         <v>230</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="M195" t="s" s="2">
         <v>1052</v>
       </c>
-      <c r="M195" t="s" s="2">
+      <c r="N195" t="s" s="2">
         <v>1053</v>
       </c>
-      <c r="N195" t="s" s="2">
+      <c r="O195" t="s" s="2">
         <v>1054</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>1055</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>80</v>
@@ -27194,7 +27191,7 @@
         <v>80</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>78</v>
@@ -27215,13 +27212,13 @@
         <v>80</v>
       </c>
       <c r="AM195" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="AN195" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO195" t="s" s="2">
         <v>1056</v>
-      </c>
-      <c r="AN195" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO195" t="s" s="2">
-        <v>1057</v>
       </c>
       <c r="AP195" t="s" s="2">
         <v>80</v>
@@ -27229,10 +27226,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -27255,16 +27252,16 @@
         <v>80</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>1059</v>
       </c>
-      <c r="M196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>1060</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>1061</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -27314,7 +27311,7 @@
         <v>80</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -27335,24 +27332,24 @@
         <v>80</v>
       </c>
       <c r="AM196" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="AN196" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO196" t="s" s="2">
         <v>1062</v>
       </c>
-      <c r="AN196" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO196" t="s" s="2">
+      <c r="AP196" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="AP196" t="s" s="2">
-        <v>1064</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -27375,13 +27372,13 @@
         <v>80</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L197" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M197" t="s" s="2">
         <v>1066</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>1067</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -27432,7 +27429,7 @@
         <v>80</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>78</v>
@@ -27453,24 +27450,24 @@
         <v>80</v>
       </c>
       <c r="AM197" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="AN197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO197" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="AN197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO197" t="s" s="2">
+      <c r="AP197" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="AP197" t="s" s="2">
-        <v>1070</v>
       </c>
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27493,16 +27490,16 @@
         <v>80</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="M198" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="N198" t="s" s="2">
         <v>1073</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>1074</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
@@ -27552,7 +27549,7 @@
         <v>80</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>78</v>
@@ -27573,13 +27570,13 @@
         <v>80</v>
       </c>
       <c r="AM198" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="AN198" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO198" t="s" s="2">
         <v>1075</v>
-      </c>
-      <c r="AN198" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO198" t="s" s="2">
-        <v>1076</v>
       </c>
       <c r="AP198" t="s" s="2">
         <v>80</v>
@@ -27587,10 +27584,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27616,10 +27613,10 @@
         <v>237</v>
       </c>
       <c r="L199" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>1078</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>1079</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -27670,7 +27667,7 @@
         <v>80</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>78</v>
@@ -27694,10 +27691,10 @@
         <v>80</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>80</v>
@@ -27705,10 +27702,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27731,13 +27728,13 @@
         <v>80</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>1082</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>1083</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -27788,7 +27785,7 @@
         <v>80</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -27815,7 +27812,7 @@
         <v>80</v>
       </c>
       <c r="AO200" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AP200" t="s" s="2">
         <v>80</v>
@@ -27823,10 +27820,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27852,10 +27849,10 @@
         <v>200</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>1086</v>
-      </c>
-      <c r="M201" t="s" s="2">
-        <v>1087</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -27882,11 +27879,11 @@
         <v>80</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y201" s="2"/>
       <c r="Z201" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AA201" t="s" s="2">
         <v>80</v>
@@ -27904,7 +27901,7 @@
         <v>80</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>78</v>
@@ -27931,7 +27928,7 @@
         <v>80</v>
       </c>
       <c r="AO201" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AP201" t="s" s="2">
         <v>80</v>
@@ -27939,10 +27936,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27965,13 +27962,13 @@
         <v>80</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="M202" t="s" s="2">
         <v>1091</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>1092</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -28022,7 +28019,7 @@
         <v>80</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>78</v>
@@ -28037,19 +28034,19 @@
         <v>103</v>
       </c>
       <c r="AK202" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="AL202" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM202" t="s" s="2">
         <v>1093</v>
       </c>
-      <c r="AL202" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM202" t="s" s="2">
+      <c r="AN202" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO202" t="s" s="2">
         <v>1094</v>
-      </c>
-      <c r="AN202" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO202" t="s" s="2">
-        <v>1095</v>
       </c>
       <c r="AP202" t="s" s="2">
         <v>80</v>
@@ -28057,10 +28054,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -28175,10 +28172,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -28295,14 +28292,14 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
@@ -28324,10 +28321,10 @@
         <v>138</v>
       </c>
       <c r="L205" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M205" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N205" t="s" s="2">
         <v>165</v>
@@ -28382,7 +28379,7 @@
         <v>80</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>78</v>
@@ -28417,10 +28414,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28443,16 +28440,16 @@
         <v>80</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>1100</v>
       </c>
-      <c r="L206" t="s" s="2">
+      <c r="M206" t="s" s="2">
         <v>1101</v>
       </c>
-      <c r="M206" t="s" s="2">
+      <c r="N206" t="s" s="2">
         <v>1102</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>1103</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -28478,14 +28475,14 @@
         <v>80</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Y206" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="Z206" t="s" s="2">
         <v>1104</v>
       </c>
-      <c r="Z206" t="s" s="2">
-        <v>1105</v>
-      </c>
       <c r="AA206" t="s" s="2">
         <v>80</v>
       </c>
@@ -28502,7 +28499,7 @@
         <v>80</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>91</v>
@@ -28523,24 +28520,24 @@
         <v>80</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO206" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="AP206" t="s" s="2">
         <v>1106</v>
-      </c>
-      <c r="AP206" t="s" s="2">
-        <v>1107</v>
       </c>
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28566,10 +28563,10 @@
         <v>200</v>
       </c>
       <c r="L207" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="M207" t="s" s="2">
         <v>1109</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>1110</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -28596,14 +28593,14 @@
         <v>80</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y207" t="s" s="2">
+        <v>1110</v>
+      </c>
+      <c r="Z207" t="s" s="2">
         <v>1111</v>
       </c>
-      <c r="Z207" t="s" s="2">
-        <v>1112</v>
-      </c>
       <c r="AA207" t="s" s="2">
         <v>80</v>
       </c>
@@ -28620,7 +28617,7 @@
         <v>80</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>78</v>
@@ -28647,18 +28644,18 @@
         <v>80</v>
       </c>
       <c r="AO207" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="AP207" t="s" s="2">
         <v>1113</v>
-      </c>
-      <c r="AP207" t="s" s="2">
-        <v>1114</v>
       </c>
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28681,16 +28678,16 @@
         <v>80</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>1116</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>1117</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>1118</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>1119</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -28740,7 +28737,7 @@
         <v>80</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>78</v>
@@ -28758,16 +28755,16 @@
         <v>80</v>
       </c>
       <c r="AL208" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="AM208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO208" t="s" s="2">
         <v>1120</v>
-      </c>
-      <c r="AM208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO208" t="s" s="2">
-        <v>1121</v>
       </c>
       <c r="AP208" t="s" s="2">
         <v>80</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
